--- a/biology/Botanique/Delesseria_sanguinea/Delesseria_sanguinea.xlsx
+++ b/biology/Botanique/Delesseria_sanguinea/Delesseria_sanguinea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Delesseria sanguinea est une espèce d'algues rouges de la famille des Delesseriaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description morphologique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette algue rouge de petite taille (généralement moins de 30 cm) présente des frondes d'un beau rouge, portées par un stipe brun-rouge. Chaque fronde comporte une côte médiane d'où partent des côtes latérales obliques ressemblant à des nervures. En été, les frondes ont tendance à s'user, et les organes reproducteurs se forment sur la côte médiane résiduelle[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette algue rouge de petite taille (généralement moins de 30 cm) présente des frondes d'un beau rouge, portées par un stipe brun-rouge. Chaque fronde comporte une côte médiane d'où partent des côtes latérales obliques ressemblant à des nervures. En été, les frondes ont tendance à s'user, et les organes reproducteurs se forment sur la côte médiane résiduelle. 
 On peut confondre Delesseria sanguinea avec Phycodrys rubens, qui est une espèce ressemblante.
 </t>
         </is>
@@ -543,10 +557,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette algue vit accrochée à des rochers ou à des algues brunes dans la partie supérieure de l'étage infralittoral.
-En Europe, on la trouve dans l'Atlantique, la Manche, la mer du Nord et plus rarement en mer Baltique, où ses frondes sont plus élancées[1].
+En Europe, on la trouve dans l'Atlantique, la Manche, la mer du Nord et plus rarement en mer Baltique, où ses frondes sont plus élancées.
 </t>
         </is>
       </c>
